--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -59,7 +59,7 @@
     <t>CONTRACTOR</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t xml:space="preserve">LOCATION </t>
   </si>
   <si>
     <t>MANPOWER</t>
@@ -74,15 +74,6 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>Subcontractor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trade </t>
-  </si>
-  <si>
-    <t>General Description</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -101,22 +92,13 @@
     <t>Task</t>
   </si>
   <si>
-    <t>John Kim</t>
-  </si>
-  <si>
-    <t>LA Publicworks</t>
-  </si>
-  <si>
-    <t>Electrical Room 100</t>
-  </si>
-  <si>
-    <t>Electrical Rough-in</t>
+    <t>Result</t>
   </si>
   <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t>Note</t>
+    <t>sdfsdfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -179,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -468,9 +450,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -503,9 +483,37 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -598,7 +606,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -618,7 +656,22 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -631,145 +684,23 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -906,101 +837,68 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1378,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
@@ -1489,21 +1387,11 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>2</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1512,220 +1400,225 @@
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="43"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="41"/>
       <c r="C9" s="42"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
       <c r="D10" s="43"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
       <c r="D11" s="43"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
       <c r="D12" s="43"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="41"/>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="47">
+        <f>SUM(C7:C14)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="47">
+        <f>SUM(D7:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="45">
-        <f>SUM(C7:C14)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="45">
-        <f>SUM(D7:D14)</f>
-        <v>2</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="C17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="F17" s="55"/>
+      <c r="G17" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="61"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="67"/>
+    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="67"/>
       <c r="D21" s="67"/>
       <c r="E21" s="67"/>
       <c r="F21" s="67"/>
       <c r="G21" s="68"/>
-      <c r="H21" s="1"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="58"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="A23" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+    <row r="25" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
+      <c r="A28" s="72"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="72"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="34">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B2:C2"/>
@@ -1756,15 +1649,10 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A23:G26"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'To Customer'!$A1:$G25</definedName>
@@ -18,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -96,9 +95,6 @@
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t>sdfsdfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -161,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -656,24 +652,7 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -684,31 +663,14 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -889,13 +851,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1262,25 +1227,11 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
@@ -1537,47 +1488,45 @@
       <c r="G20" s="64"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1590,32 +1539,52 @@
       <c r="G25" s="70"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="71"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
+      <c r="A29" s="72"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
+      <c r="A30" s="73"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="72"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
+      <c r="A32" s="72"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1649,10 +1618,10 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A23:G26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G28"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,34 +25,31 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">PROJECT NAME </t>
+    <t>Walter Library Fire Alarm Replacement</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
+    <t>08/19/2022</t>
+  </si>
+  <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>CONTRACT NO</t>
+    <t>???</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
   </si>
   <si>
-    <t>PROJECT ID</t>
-  </si>
-  <si>
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t xml:space="preserve">TASK ORDER NO. </t>
-  </si>
-  <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
   </si>
   <si>
-    <t xml:space="preserve">LOG IN ( NAME ) </t>
+    <t>Kim, Hyun Myung</t>
   </si>
   <si>
     <t>CONTRACTOR</t>
@@ -1266,25 +1263,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="13">
-        <v>44781</v>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="G2" s="14"/>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="16" t="s">
-        <v>7</v>
+      <c r="F3" s="16">
+        <v>6409</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1294,31 +1291,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1327,10 +1324,10 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>17</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="47">
@@ -1428,7 +1425,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
@@ -1440,21 +1437,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="C17" s="54" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>22</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1519,7 +1516,7 @@
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="69"/>
       <c r="C24" s="69"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,7 +25,7 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Walter Library Fire Alarm Replacement</t>
+    <t>EC 2nd Floor Restrooms MW Sewer Repair (PR1224)</t>
   </si>
   <si>
     <t>DATE</t>
@@ -70,6 +70,18 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
+    <t>A &amp; M Lath and Plastering Inc</t>
+  </si>
+  <si>
+    <t>TEST-HM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Women's Restroom - Install new wall Tiles</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -91,7 +103,22 @@
     <t>Result</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>tsetst</t>
+  </si>
+  <si>
+    <t>etset</t>
+  </si>
+  <si>
+    <t>setsetset</t>
+  </si>
+  <si>
     <t>NOTE</t>
+  </si>
+  <si>
+    <t>testsetsetetstetsetsetstesetset</t>
   </si>
 </sst>
 </file>
@@ -154,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -657,6 +684,17 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
@@ -667,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -850,6 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1226,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
@@ -1281,7 +1320,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>6409</v>
+        <v>6410</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1335,11 +1374,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1408,7 +1457,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="47">
@@ -1425,7 +1474,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
@@ -1437,32 +1486,42 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="55"/>
       <c r="E17" s="54" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="56" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="E18" s="61" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="G18" s="63" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,113 +1534,85 @@
       <c r="G19" s="64"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="1"/>
+    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="64"/>
+      <c r="A21" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="64"/>
+      <c r="A22" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+    <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="72"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
+    <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
+      <c r="A29" s="73"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="74"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
+      <c r="A31" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1615,10 +1646,10 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:G28"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -76,12 +76,57 @@
     <t>TEST-HM</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Women's Restroom - Install new wall Tiles</t>
   </si>
   <si>
+    <t>setsets</t>
+  </si>
+  <si>
+    <t>tset</t>
+  </si>
+  <si>
+    <t>Men's Restroom - Remove wall Tiles</t>
+  </si>
+  <si>
+    <t>etsetes</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>A C Pros Inc</t>
+  </si>
+  <si>
+    <t>tsets</t>
+  </si>
+  <si>
+    <t>Women's Restroom - Remove and reinstall existing p</t>
+  </si>
+  <si>
+    <t>548 Group Inc.</t>
+  </si>
+  <si>
+    <t>tsetst</t>
+  </si>
+  <si>
+    <t>Women's Restroom - Install new Floor Tiles</t>
+  </si>
+  <si>
+    <t>A J Construction Specialties, Inc.</t>
+  </si>
+  <si>
+    <t>etset</t>
+  </si>
+  <si>
+    <t>stesetset</t>
+  </si>
+  <si>
+    <t>Women's Restroom - Remove wall Tiles</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -103,22 +148,69 @@
     <t>Result</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>tsetst</t>
-  </si>
-  <si>
-    <t>etset</t>
+    <t>testtestetset</t>
   </si>
   <si>
     <t>setsetset</t>
   </si>
   <si>
+    <t>TEST 1</t>
+  </si>
+  <si>
+    <t>tsetsetstset</t>
+  </si>
+  <si>
+    <t>steset</t>
+  </si>
+  <si>
+    <t>setsetsets</t>
+  </si>
+  <si>
+    <t>setstsets</t>
+  </si>
+  <si>
+    <t>sets</t>
+  </si>
+  <si>
+    <t>erteetsets</t>
+  </si>
+  <si>
+    <t>terterte</t>
+  </si>
+  <si>
+    <t>testset</t>
+  </si>
+  <si>
+    <t>erttsetset</t>
+  </si>
+  <si>
+    <t>testsetst</t>
+  </si>
+  <si>
+    <t>testsetset</t>
+  </si>
+  <si>
+    <t>tsetst4</t>
+  </si>
+  <si>
+    <t>erterte</t>
+  </si>
+  <si>
+    <t>testsetsteset</t>
+  </si>
+  <si>
+    <t>testsetssetset</t>
+  </si>
+  <si>
+    <t>tesetsetset</t>
+  </si>
+  <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t>testsetsetetstetsetsetstesetset</t>
+    <t xml:space="preserve">TEST ITTEST ITTEST ITTEST ITTEST ITTEST ITTEST ITTEST ITTEST IT
+TEST ITTEST ITTEST ITTEST ITTEST IT
+TEST ITTEST IT</t>
   </si>
 </sst>
 </file>
@@ -181,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -561,17 +653,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -615,6 +696,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -629,34 +738,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -684,17 +765,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="dashed">
         <color indexed="64"/>
       </top>
@@ -705,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -816,29 +886,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,12 +925,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,38 +934,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1265,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
@@ -1380,239 +1449,426 @@
       <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="38">
+        <v>2</v>
+      </c>
+      <c r="D7" s="39">
+        <v>8</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>20</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="A8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="42">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43">
+        <v>5</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="A9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="42">
+        <v>5</v>
+      </c>
+      <c r="D9" s="43">
+        <v>5</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="42">
+        <v>5</v>
+      </c>
+      <c r="D10" s="43">
+        <v>80</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="42">
+        <v>5</v>
+      </c>
+      <c r="D11" s="43">
+        <v>9</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="A12" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="42">
+        <v>1</v>
+      </c>
+      <c r="D12" s="43">
+        <v>9</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="A13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="42">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43">
+        <v>9</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="45"/>
+      <c r="A14" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="42">
+        <v>15</v>
+      </c>
+      <c r="D14" s="43">
+        <v>9</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
-    <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="47">
-        <f>SUM(C7:C14)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="47">
-        <f>SUM(D7:D14)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="1"/>
+    <row r="15" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="42">
+        <v>10</v>
+      </c>
+      <c r="D15" s="43">
+        <v>6</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48">
+        <f>=SUM(C7:C15)</f>
+      </c>
+      <c r="D16" s="48">
+        <f>=SUM(D7:D15)</f>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56" t="s">
-        <v>27</v>
-      </c>
+      <c r="A17" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="59" t="s">
+      <c r="A18" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="64"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59" t="s">
+        <v>44</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
+    <row r="20" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61" t="s">
+        <v>48</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="A22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61" t="s">
+        <v>32</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
+      <c r="A23" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61" t="s">
+        <v>53</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
+      <c r="A24" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
+      <c r="A25" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="63"/>
+      <c r="G25" s="44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
+      <c r="A31" s="66"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="67"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1638,18 +1894,18 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>EC 2nd Floor Restrooms MW Sewer Repair (PR1224)</t>
+    <t>Underground Hydronic HHW Piiping</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/19/2022</t>
+    <t>08/23/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>???</t>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,6 +46,9 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
+    <t>CSU CPP-001.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
   </si>
   <si>
@@ -70,63 +73,6 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>A &amp; M Lath and Plastering Inc</t>
-  </si>
-  <si>
-    <t>TEST-HM</t>
-  </si>
-  <si>
-    <t>Women's Restroom - Install new wall Tiles</t>
-  </si>
-  <si>
-    <t>setsets</t>
-  </si>
-  <si>
-    <t>tset</t>
-  </si>
-  <si>
-    <t>Men's Restroom - Remove wall Tiles</t>
-  </si>
-  <si>
-    <t>etsetes</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
-    <t>A C Pros Inc</t>
-  </si>
-  <si>
-    <t>tsets</t>
-  </si>
-  <si>
-    <t>Women's Restroom - Remove and reinstall existing p</t>
-  </si>
-  <si>
-    <t>548 Group Inc.</t>
-  </si>
-  <si>
-    <t>tsetst</t>
-  </si>
-  <si>
-    <t>Women's Restroom - Install new Floor Tiles</t>
-  </si>
-  <si>
-    <t>A J Construction Specialties, Inc.</t>
-  </si>
-  <si>
-    <t>etset</t>
-  </si>
-  <si>
-    <t>stesetset</t>
-  </si>
-  <si>
-    <t>Women's Restroom - Remove wall Tiles</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -148,69 +94,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>testtestetset</t>
-  </si>
-  <si>
-    <t>setsetset</t>
-  </si>
-  <si>
-    <t>TEST 1</t>
-  </si>
-  <si>
-    <t>tsetsetstset</t>
-  </si>
-  <si>
-    <t>steset</t>
-  </si>
-  <si>
-    <t>setsetsets</t>
-  </si>
-  <si>
-    <t>setstsets</t>
-  </si>
-  <si>
-    <t>sets</t>
-  </si>
-  <si>
-    <t>erteetsets</t>
-  </si>
-  <si>
-    <t>terterte</t>
-  </si>
-  <si>
-    <t>testset</t>
-  </si>
-  <si>
-    <t>erttsetset</t>
-  </si>
-  <si>
-    <t>testsetst</t>
-  </si>
-  <si>
-    <t>testsetset</t>
-  </si>
-  <si>
-    <t>tsetst4</t>
-  </si>
-  <si>
-    <t>erterte</t>
-  </si>
-  <si>
-    <t>testsetsteset</t>
-  </si>
-  <si>
-    <t>testsetssetset</t>
-  </si>
-  <si>
-    <t>tesetsetset</t>
-  </si>
-  <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST ITTEST ITTEST ITTEST ITTEST ITTEST ITTEST ITTEST ITTEST IT
-TEST ITTEST ITTEST ITTEST ITTEST IT
-TEST ITTEST IT</t>
   </si>
 </sst>
 </file>
@@ -273,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -653,6 +537,17 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -696,34 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -738,6 +605,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -768,6 +663,35 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -775,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -925,6 +849,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,11 +864,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -955,6 +885,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -964,10 +897,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1334,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
@@ -1389,7 +1352,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>6410</v>
+        <v>6485</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1399,31 +1362,31 @@
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="29"/>
@@ -1432,10 +1395,10 @@
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -1443,432 +1406,223 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="38">
-        <v>2</v>
-      </c>
-      <c r="D7" s="39">
-        <v>8</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="42">
-        <v>3</v>
-      </c>
-      <c r="D8" s="43">
-        <v>5</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="42">
-        <v>5</v>
-      </c>
-      <c r="D9" s="43">
-        <v>5</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="42">
-        <v>5</v>
-      </c>
-      <c r="D10" s="43">
-        <v>80</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>27</v>
-      </c>
+      <c r="A10" s="36"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="42">
-        <v>5</v>
-      </c>
-      <c r="D11" s="43">
-        <v>9</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="36"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="42">
-        <v>1</v>
-      </c>
-      <c r="D12" s="43">
-        <v>9</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>27</v>
-      </c>
+      <c r="A12" s="36"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="42">
-        <v>1</v>
-      </c>
-      <c r="D13" s="43">
-        <v>9</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>30</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="42">
-        <v>15</v>
-      </c>
-      <c r="D14" s="43">
-        <v>9</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="42">
-        <v>10</v>
-      </c>
-      <c r="D15" s="43">
+      <c r="A14" s="36"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="48">
+        <f>=SUM(C7:C14)</f>
+      </c>
+      <c r="D15" s="48">
+        <f>=SUM(D7:D14)</f>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48">
-        <f>=SUM(C7:C15)</f>
-      </c>
-      <c r="D16" s="48">
-        <f>=SUM(D7:D15)</f>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61" t="s">
-        <v>32</v>
-      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61" t="s">
-        <v>53</v>
-      </c>
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="1"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61" t="s">
-        <v>57</v>
-      </c>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="1"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="79"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="79"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="80"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
+      <c r="A31" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1894,18 +1648,18 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:G30"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G25"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
@@ -25,7 +25,7 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Underground Hydronic HHW Piiping</t>
+    <t>MH675 Renovation (PR669)</t>
   </si>
   <si>
     <t>DATE</t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>CSU CPP-001.00</t>
+    <t>J540008.00</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -961,9 +961,9 @@
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>31060</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1476375" cy="428625"/>
     <xdr:pic>
@@ -1303,11 +1303,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="6.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1352,7 +1353,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>6485</v>
+        <v>6388</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -120,6 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="20"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="7"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -765,43 +772,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -837,22 +844,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,7 +910,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,7 +943,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -960,10 +967,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>31060</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>345799</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>97734</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1476375" cy="428625"/>
     <xdr:pic>
@@ -1299,14 +1306,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="6.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="7.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2" customWidth="1"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,7 +25,7 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>MH675 Renovation (PR669)</t>
+    <t>Repair/Addition Comm Node B64 &amp; B1052</t>
   </si>
   <si>
     <t>DATE</t>
@@ -37,71 +37,77 @@
     <t>CONTRACT NO.</t>
   </si>
   <si>
+    <t>LKTC 17-1007 &amp; 1008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT ID </t>
+  </si>
+  <si>
+    <t>TASK ORDER NO.</t>
+  </si>
+  <si>
+    <t>FA486118FA151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOCUMENTED BY </t>
+  </si>
+  <si>
+    <t>Kim, Hyun Myung</t>
+  </si>
+  <si>
+    <t>CONTRACTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCATION </t>
+  </si>
+  <si>
+    <t>MANPOWER</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>NO. OF SUPER</t>
+  </si>
+  <si>
+    <t>NO. OF WORKERS</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>No on-site work</t>
+  </si>
+  <si>
+    <t>INSPECTIONS</t>
+  </si>
+  <si>
+    <t>Name of Inspector</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">PROJECT ID </t>
-  </si>
-  <si>
-    <t>TASK ORDER NO.</t>
-  </si>
-  <si>
-    <t>J540008.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOCUMENTED BY </t>
-  </si>
-  <si>
-    <t>Kim, Hyun Myung</t>
-  </si>
-  <si>
-    <t>CONTRACTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCATION </t>
-  </si>
-  <si>
-    <t>MANPOWER</t>
-  </si>
-  <si>
-    <t>TASK</t>
-  </si>
-  <si>
-    <t>NO. OF SUPER</t>
-  </si>
-  <si>
-    <t>NO. OF WORKERS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>INSPECTIONS</t>
-  </si>
-  <si>
-    <t>Name of Inspector</t>
-  </si>
-  <si>
-    <t>Agency</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>NOTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -120,13 +126,6 @@
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="20"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <family val="2"/>
-      <scheme val="minor"/>
-      <sz val="7"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -772,43 +771,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,22 +843,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,7 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +942,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -967,10 +966,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>345799</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>97734</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1476375" cy="428625"/>
     <xdr:pic>
@@ -1306,18 +1305,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="7.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1362,7 +1358,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>6388</v>
+        <v>5756</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1498,13 +1494,15 @@
       <c r="D15" s="48">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1516,21 +1514,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1565,7 +1563,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1577,7 +1575,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -73,12 +73,15 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
+    <t>Northcon Inc</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>No on-site work</t>
-  </si>
-  <si>
     <t>INSPECTIONS</t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -1412,11 +1412,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="38">
+        <v>4</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1485,7 +1495,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1494,15 +1504,13 @@
       <c r="D15" s="48">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1514,21 +1522,21 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1563,7 +1571,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1575,7 +1583,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair/Addition Comm Node B64 &amp; B1052</t>
+    <t>Desert HS Modernization</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/23/2022</t>
+    <t>08/22/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>LKTC 17-1007 &amp; 1008</t>
+    <t>5976</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA151</t>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -73,7 +73,16 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>Northcon Inc</t>
+    <t>Ace Fence Company</t>
+  </si>
+  <si>
+    <t>Bldg 400</t>
+  </si>
+  <si>
+    <t>Fencing installation</t>
+  </si>
+  <si>
+    <t>5 Star Elevator Service</t>
   </si>
   <si>
     <t/>
@@ -100,7 +109,25 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Inpsector A</t>
+  </si>
+  <si>
+    <t>LAISD</t>
+  </si>
+  <si>
+    <t>1st Floor Electrical Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rough Electrical </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>NOTE</t>
+  </si>
+  <si>
+    <t>Visitor : Material Delivery</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1385,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>5756</v>
+        <v>5976</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1419,23 +1446,33 @@
         <v>19</v>
       </c>
       <c r="C7" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="A8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
@@ -1495,7 +1532,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1510,7 +1547,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1522,32 +1559,42 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="62" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="64" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1571,7 +1618,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1583,7 +1630,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,7 +25,7 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Desert HS Modernization</t>
+    <t>Repair HVAC Interior B10210</t>
   </si>
   <si>
     <t>DATE</t>
@@ -37,7 +37,7 @@
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>5976</t>
+    <t>RKMF 17-0133</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>FA486118FA140</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -73,19 +73,13 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>Ace Fence Company</t>
+    <t>548 Group Inc.</t>
   </si>
   <si>
     <t>Bldg 400</t>
   </si>
   <si>
-    <t>Fencing installation</t>
-  </si>
-  <si>
-    <t>5 Star Elevator Service</t>
-  </si>
-  <si>
-    <t/>
+    <t xml:space="preserve">  Abatement</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -115,9 +109,6 @@
     <t>LAISD</t>
   </si>
   <si>
-    <t>1st Floor Electrical Room</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rough Electrical </t>
   </si>
   <si>
@@ -127,7 +118,7 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>Visitor : Material Delivery</t>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1376,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>5976</v>
+        <v>5733</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1449,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>20</v>
@@ -1458,21 +1449,11 @@
       <c r="G7" s="40"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="42">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>22</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
@@ -1532,7 +1513,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1547,7 +1528,7 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1559,41 +1540,41 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>27</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D18" s="61"/>
       <c r="E18" s="62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="64" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1618,7 +1599,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1630,7 +1611,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>Desert HS Modernization</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/22/2022</t>
+    <t>08/09/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t>5976</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
+    <t>N/A</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -73,18 +73,12 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>548 Group Inc.</t>
-  </si>
-  <si>
-    <t>Bldg 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Abatement</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
+    <t>No on-site work</t>
+  </si>
+  <si>
     <t>INSPECTIONS</t>
   </si>
   <si>
@@ -103,22 +97,10 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Inpsector A</t>
-  </si>
-  <si>
-    <t>LAISD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rough Electrical </t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t>Test</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1376,7 +1358,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>5733</v>
+        <v>5976</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1430,21 +1412,11 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="38">
-        <v>1</v>
-      </c>
-      <c r="D7" s="39">
-        <v>1</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1513,7 +1485,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1522,13 +1494,15 @@
       <c r="D15" s="48">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49"/>
+      <c r="E15" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1540,42 +1514,32 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>23</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>25</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="61"/>
-      <c r="E18" s="62" t="s">
-        <v>30</v>
-      </c>
+      <c r="E18" s="62"/>
       <c r="F18" s="63"/>
-      <c r="G18" s="64" t="s">
-        <v>31</v>
-      </c>
+      <c r="G18" s="64"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,7 +1563,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1611,7 +1575,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -31,7 +31,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>08/09/2022</t>
+    <t>08/31/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
@@ -1357,8 +1357,8 @@
         <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="16">
-        <v>5976</v>
+      <c r="F3" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Desert HS Modernization</t>
+    <t>Repair HVAC Interior B10210</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/31/2022</t>
+    <t>08/22/2022</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>5976</t>
+    <t>RKMF 17-0133</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>FA486118FA140</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -73,12 +73,18 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
+    <t>548 Group Inc.</t>
+  </si>
+  <si>
+    <t>Bldg 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Abatement</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>No on-site work</t>
-  </si>
-  <si>
     <t>INSPECTIONS</t>
   </si>
   <si>
@@ -97,10 +103,22 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Inpsector A</t>
+  </si>
+  <si>
+    <t>LAISD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rough Electrical </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>NOTE</t>
   </si>
   <si>
-    <t/>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -1357,8 +1375,8 @@
         <v>7</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="16" t="s">
-        <v>6</v>
+      <c r="F3" s="16">
+        <v>5733</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1412,11 +1430,21 @@
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="38">
+        <v>1</v>
+      </c>
+      <c r="D7" s="39">
+        <v>1</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
@@ -1485,7 +1513,7 @@
     </row>
     <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="48">
@@ -1494,15 +1522,13 @@
       <c r="D15" s="48">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -1514,32 +1540,42 @@
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" s="54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="55" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>19</v>
+      </c>
       <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="E18" s="62" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="64" t="s">
+        <v>31</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,7 +1599,7 @@
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
@@ -1575,7 +1611,7 @@
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>Renovate Bldg 1005</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/22/2022</t>
+    <t>01/11/2023</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t>5953</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
+    <t>FA486119FA230</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -73,13 +73,28 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>548 Group Inc.</t>
-  </si>
-  <si>
-    <t>Bldg 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Abatement</t>
+    <t>Northcon Inc</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mobilization: Prepare Site, Laydown Yard and Temp. Fence</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Valley Electric Associate</t>
+  </si>
+  <si>
+    <t>Demo: Existing Interior Electrical of Outlets, Conduits, Feeders, PDUs Etc</t>
+  </si>
+  <si>
+    <t>Demo: Selective Civil Demo of Sidewalk, Light Poles, Fence, Camera Etc</t>
+  </si>
+  <si>
+    <t>Demo: Selective Demo Interior Ceiling and Flooring</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -103,22 +118,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Inpsector A</t>
-  </si>
-  <si>
-    <t>LAISD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rough Electrical </t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -561,17 +561,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -615,6 +604,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -629,34 +646,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -687,35 +676,6 @@
       <top style="dashed">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashed">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -723,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -873,12 +833,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,11 +842,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -909,9 +863,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -921,46 +872,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
@@ -1376,7 +1297,7 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="16">
-        <v>5733</v>
+        <v>5953</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="3"/>
@@ -1437,10 +1358,10 @@
         <v>19</v>
       </c>
       <c r="C7" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>20</v>
@@ -1449,224 +1370,379 @@
       <c r="G7" s="40"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="A8" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
+      <c r="A9" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
+      <c r="A10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0</v>
+      </c>
+      <c r="D10" s="43">
+        <v>0</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
+      <c r="A12" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="42">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43">
+        <v>0</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
     </row>
     <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="42">
+        <v>0</v>
+      </c>
+      <c r="D13" s="43">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>24</v>
+      </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="48">
-        <f>=SUM(C7:C14)</f>
-      </c>
-      <c r="D15" s="48">
-        <f>=SUM(D7:D14)</f>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="A14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="B14" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="42">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <v>0</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="42">
+        <v>0</v>
+      </c>
+      <c r="D15" s="43">
+        <v>0</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0</v>
+      </c>
+      <c r="D16" s="43">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="42">
+        <v>0</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="42">
+        <v>0</v>
+      </c>
+      <c r="D18" s="43">
+        <v>0</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="42">
+        <v>0</v>
+      </c>
+      <c r="D19" s="43">
+        <v>0</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48">
+        <f>=SUM(C7:C19)</f>
+      </c>
+      <c r="D20" s="48">
+        <f>=SUM(D7:D19)</f>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B22" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C22" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="67"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="66"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -1692,18 +1768,18 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:G20"/>
     <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:G30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>

--- a/public/record/ToCustomer_7784.xlsx
+++ b/public/record/ToCustomer_7784.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet sheetId="2" name="To Customer" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'To Customer'!$A1:$G25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'To Customer'!$A1:$H25</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>DAILY REPORT</t>
   </si>
@@ -25,19 +25,19 @@
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>Repair HVAC Interior B10210</t>
+    <t>HVAC/Fire Suppression Upgrade for Creech AFB</t>
   </si>
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>08/22/2022</t>
+    <t>10/31/2023</t>
   </si>
   <si>
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>RKMF 17-0133</t>
+    <t>FA486120F0317</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
@@ -46,7 +46,7 @@
     <t>TASK ORDER NO.</t>
   </si>
   <si>
-    <t>FA486118FA140</t>
+    <t>TC00009560</t>
   </si>
   <si>
     <t xml:space="preserve">DOCUMENTED BY </t>
@@ -73,13 +73,25 @@
     <t>NO. OF WORKERS</t>
   </si>
   <si>
-    <t>548 Group Inc.</t>
-  </si>
-  <si>
-    <t>Bldg 400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Abatement</t>
+    <t>Work Hours</t>
+  </si>
+  <si>
+    <t>Air Design Systems</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>#4 - Supervision</t>
+  </si>
+  <si>
+    <t>Kazal Fire Protection Inc</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>TOTAL</t>
@@ -103,22 +115,22 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Inpsector A</t>
-  </si>
-  <si>
-    <t>LAISD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rough Electrical </t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>tests1</t>
+  </si>
+  <si>
+    <t>tst112222222</t>
+  </si>
+  <si>
+    <t>3333333</t>
+  </si>
+  <si>
+    <t>444444</t>
+  </si>
+  <si>
+    <t>555555</t>
   </si>
   <si>
     <t>NOTE</t>
-  </si>
-  <si>
-    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -156,7 +168,7 @@
     <font>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="6"/>
+      <sz val="5"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -181,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -616,9 +628,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="dashed">
         <color indexed="64"/>
@@ -626,39 +636,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dashed">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="dashed">
@@ -668,6 +648,47 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -683,6 +704,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="dashed">
         <color indexed="64"/>
@@ -723,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -798,6 +828,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,6 +921,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,12 +945,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -927,6 +963,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -939,13 +981,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -984,7 +1026,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -1321,21 +1363,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="8.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="5.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48.75" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="48.75" customHeight="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1343,10 +1387,11 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1354,16 +1399,17 @@
         <v>2</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -1371,34 +1417,35 @@
         <v>6</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16">
-        <v>5733</v>
-      </c>
-      <c r="G3" s="17"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="12"/>
+      <c r="G3" s="16">
+        <v>6166</v>
+      </c>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>12</v>
       </c>
@@ -1409,301 +1456,339 @@
         <v>14</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="28"/>
       <c r="G5" s="29"/>
-    </row>
-    <row r="6" ht="19.5" customHeight="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="F6" s="34"/>
       <c r="G6" s="35"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="38">
-        <v>1</v>
+      <c r="B7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="39">
+        <v>17</v>
       </c>
       <c r="D7" s="39">
-        <v>1</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="40">
+        <v>10</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="43">
+        <v>3</v>
+      </c>
+      <c r="D8" s="43">
+        <v>3</v>
+      </c>
+      <c r="E8" s="44">
+        <v>30</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="43"/>
       <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" ht="24.75" customHeight="1" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="48">
+      <c r="E14" s="44"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" ht="24.75" customHeight="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="49">
         <f>=SUM(C7:C14)</f>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="49">
         <f>=SUM(D7:D14)</f>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
+      <c r="E15" s="49">
+        <f>=SUM(E7:E14)</f>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="54" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="78"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="82"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
+      <c r="A26" s="83"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
+      <c r="A27" s="84"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
+      <c r="A28" s="83"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
+      <c r="A29" s="83"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
+      <c r="A30" s="84"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
+      <c r="A31" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:G25"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:H25"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.46" right="0.32" top="0.58" bottom="0.45" header="0.57" footer="0.3"/>
